--- a/Marketing Team Data.xlsx
+++ b/Marketing Team Data.xlsx
@@ -2,26 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Execelerate DA Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CE1E5F-F690-449D-8962-492D480B59CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642A54C-AE12-44AF-B399-8EA480FFD80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
   <si>
     <t>campaign ID</t>
   </si>
@@ -53,27 +59,9 @@
     <t>Unique Clicks</t>
   </si>
   <si>
-    <t>Unique Link Clicks (ULC)</t>
-  </si>
-  <si>
-    <t>Click-Through Rate (CTR in %)</t>
-  </si>
-  <si>
-    <t>Unique Click-Through Rate (Unique CTR in %)</t>
-  </si>
-  <si>
     <t>Amount Spent in INR</t>
   </si>
   <si>
-    <t>Cost Per Click (CPC)</t>
-  </si>
-  <si>
-    <t>Cost per Result (CPR)</t>
-  </si>
-  <si>
-    <t>@dropdown</t>
-  </si>
-  <si>
     <t>Campaign 1</t>
   </si>
   <si>
@@ -195,16 +183,47 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Unique Link Clicks</t>
+  </si>
+  <si>
+    <t>Click-Through Rate</t>
+  </si>
+  <si>
+    <t>Unique Click-Through Rate</t>
+  </si>
+  <si>
+    <t>Cost Per Click</t>
+  </si>
+  <si>
+    <t>Cost per Result</t>
+  </si>
+  <si>
+    <t>Sum of Cost Per Click</t>
+  </si>
+  <si>
+    <t>Sum of Cost per Result</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Click-Through Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,6 +234,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,11 +264,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,6 +293,2637 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Marketing Team Data.xlsx]Sheet4!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7328334384096365E-2"/>
+          <c:y val="4.5300113250283124E-2"/>
+          <c:w val="0.71667575321529753"/>
+          <c:h val="0.88919054389034702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost Per Click</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-C09]#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.24230873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3488614299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1667277899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93C1-4164-9E01-2111B4E9401F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost per Result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93C1-4164-9E01-2111B4E9401F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Click-Through Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Campaign 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Campaign 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Campaign 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.787890554636451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6071250514881257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6934851244004676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-93C1-4164-9E01-2111B4E9401F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1513465839"/>
+        <c:axId val="1513479759"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1513465839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513479759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1513479759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$$-C09]#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513465839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77843706493210074"/>
+          <c:y val="0.13955690434529017"/>
+          <c:w val="0.20589005507946842"/>
+          <c:h val="0.28878754738990958"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent4">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386B3533-3A01-BF35-805C-0444E16BFD64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="45749.954114583335" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{FD7BD0A7-EC07-4EC4-A879-E0CB4438B35D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="campaign ID" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Campaign Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Audience" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Geography" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Reach" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="91" maxValue="30110"/>
+    </cacheField>
+    <cacheField name="Impressions" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="39161"/>
+    </cacheField>
+    <cacheField name="Frequency" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.042613636" maxValue="3.1690805530000001"/>
+    </cacheField>
+    <cacheField name="Clicks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="2593"/>
+    </cacheField>
+    <cacheField name="Unique Clicks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="1994"/>
+    </cacheField>
+    <cacheField name="Unique Link Clicks" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="1095"/>
+    </cacheField>
+    <cacheField name="Click-Through Rate" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.6688918558077435" maxValue="12.951807228915662"/>
+    </cacheField>
+    <cacheField name="Unique Click-Through Rate" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.0265991099999998" maxValue="12.131147540000001"/>
+    </cacheField>
+    <cacheField name="Amount Spent in INR" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="47.26" maxValue="1193.94"/>
+    </cacheField>
+    <cacheField name="Cost Per Click" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.29093766999999998" maxValue="10.18469247"/>
+    </cacheField>
+    <cacheField name="Cost per Result" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.69" maxValue="30.55"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ADMIN" refreshedDate="45749.957571412036" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{EE5DDC3E-13DC-4B12-B30D-3455A658BB73}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D1048576" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="campaign ID" numFmtId="0">
+      <sharedItems containsBlank="1" count="12">
+        <s v="Campaign 1"/>
+        <s v="Campaign 2"/>
+        <s v="Campaign 3"/>
+        <s v="Campaign 4"/>
+        <s v="Campaign 5"/>
+        <s v="Campaign 6"/>
+        <s v="Campaign 7"/>
+        <s v="Campaign 8"/>
+        <s v="Campaign 9"/>
+        <s v="Campaign 10"/>
+        <s v="Campaign 11"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cost Per Click" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.29093766999999998" maxValue="10.18469247"/>
+    </cacheField>
+    <cacheField name="Cost per Result" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.69" maxValue="30.55"/>
+    </cacheField>
+    <cacheField name="Click-Through Rate" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.6688918558077435" maxValue="12.951807228915662"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
+  <r>
+    <s v="Campaign 1"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="25-34"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="11387"/>
+    <n v="23283"/>
+    <n v="2.0447000970000002"/>
+    <n v="487"/>
+    <n v="406"/>
+    <n v="180"/>
+    <n v="2.0916548554739509"/>
+    <n v="3.5654693900000001"/>
+    <n v="1092.24"/>
+    <n v="2.2427900900000002"/>
+    <n v="6.07"/>
+  </r>
+  <r>
+    <s v="Campaign 1"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="35-44"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="8761"/>
+    <n v="15683"/>
+    <n v="1.7900924549999999"/>
+    <n v="484"/>
+    <n v="376"/>
+    <n v="154"/>
+    <n v="3.0861442326085573"/>
+    <n v="4.2917475200000004"/>
+    <n v="835.46"/>
+    <n v="1.7261653800000001"/>
+    <n v="5.43"/>
+  </r>
+  <r>
+    <s v="Campaign 1"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="45-54"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="2867"/>
+    <n v="6283"/>
+    <n v="2.191489362"/>
+    <n v="198"/>
+    <n v="145"/>
+    <n v="65"/>
+    <n v="3.1513608148973424"/>
+    <n v="5.0575514500000001"/>
+    <n v="319.38"/>
+    <n v="1.6130377300000001"/>
+    <n v="4.91"/>
+  </r>
+  <r>
+    <s v="Campaign 1"/>
+    <s v="SHU_6 (Educators and Principals)"/>
+    <s v="Educators and Principals"/>
+    <s v="55-64"/>
+    <s v="Group 1 (Australia, Canada, United Kingdom, Ghana, Nigeria, Pakistan, United States)"/>
+    <n v="889"/>
+    <n v="1890"/>
+    <n v="2.1259842519999999"/>
+    <n v="49"/>
+    <n v="40"/>
+    <n v="21"/>
+    <n v="2.5925925925925926"/>
+    <n v="4.4994375700000004"/>
+    <n v="86.25"/>
+    <n v="1.76011659"/>
+    <n v="4.1100000000000003"/>
+  </r>
+  <r>
+    <s v="Campaign 2"/>
+    <s v="SHU3_ (Students Apart from India and US)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Group 2 (Australia, Canada, United Kingdom, Ghana, Niger, Nigeria, Nepal, Pakistan, Thailand, Taiwan)"/>
+    <n v="29675"/>
+    <n v="39161"/>
+    <n v="1.319663016"/>
+    <n v="2593"/>
+    <n v="1994"/>
+    <n v="1095"/>
+    <n v="6.6213835193176891"/>
+    <n v="6.7194608300000001"/>
+    <n v="1193.94"/>
+    <n v="0.46044803000000001"/>
+    <n v="1.0900000000000001"/>
+  </r>
+  <r>
+    <s v="Campaign 2"/>
+    <s v="SHU3_ (Students Apart from India and US)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Group 2 (Australia, Canada, United Kingdom, Ghana, Niger, Nigeria, Nepal, Pakistan, Thailand, Taiwan)"/>
+    <n v="14753"/>
+    <n v="25705"/>
+    <n v="1.742357487"/>
+    <n v="969"/>
+    <n v="698"/>
+    <n v="435"/>
+    <n v="3.7696946119432013"/>
+    <n v="4.7312411000000001"/>
+    <n v="299.51"/>
+    <n v="0.30908815000000001"/>
+    <n v="0.69"/>
+  </r>
+  <r>
+    <s v="Campaign 2"/>
+    <s v="SHU3_ (Students Apart from India and US)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Group 2 (Australia, Canada, United Kingdom, Ghana, Niger, Nigeria, Nepal, Pakistan, Thailand, Taiwan)"/>
+    <n v="2066"/>
+    <n v="2447"/>
+    <n v="1.184414327"/>
+    <n v="181"/>
+    <n v="141"/>
+    <n v="65"/>
+    <n v="7.3968124233755619"/>
+    <n v="6.8247821899999987"/>
+    <n v="85.57"/>
+    <n v="0.47277255000000001"/>
+    <n v="1.32"/>
+  </r>
+  <r>
+    <s v="Campaign 3"/>
+    <s v="SHU_Students(Australia)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Australia"/>
+    <n v="2271"/>
+    <n v="2616"/>
+    <n v="1.151915456"/>
+    <n v="61"/>
+    <n v="55"/>
+    <n v="28"/>
+    <n v="2.3318042813455659"/>
+    <n v="2.4218405999999999"/>
+    <n v="475.85"/>
+    <n v="7.8007930099999996"/>
+    <n v="16.989999999999998"/>
+  </r>
+  <r>
+    <s v="Campaign 3"/>
+    <s v="SHU_Students(Australia)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Australia"/>
+    <n v="704"/>
+    <n v="734"/>
+    <n v="1.042613636"/>
+    <n v="49"/>
+    <n v="46"/>
+    <n v="13"/>
+    <n v="6.6757493188010901"/>
+    <n v="6.5340909099999998"/>
+    <n v="283.17"/>
+    <n v="5.7789672200000002"/>
+    <n v="21.78"/>
+  </r>
+  <r>
+    <s v="Campaign 3"/>
+    <s v="SHU_Students(Australia)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Australia"/>
+    <n v="212"/>
+    <n v="222"/>
+    <n v="1.0471698110000001"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="4.0540540540540544"/>
+    <n v="3.7735849099999994"/>
+    <n v="91.66"/>
+    <n v="10.18469247"/>
+    <n v="30.55"/>
+  </r>
+  <r>
+    <s v="Campaign 4"/>
+    <s v="SHU_Students (Canada)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Canada"/>
+    <n v="2330"/>
+    <n v="3146"/>
+    <n v="1.3502145919999999"/>
+    <n v="101"/>
+    <n v="84"/>
+    <n v="63"/>
+    <n v="3.2104259376986648"/>
+    <n v="3.6051502100000001"/>
+    <n v="528.08000000000004"/>
+    <n v="5.2284878700000004"/>
+    <n v="8.3800000000000008"/>
+  </r>
+  <r>
+    <s v="Campaign 4"/>
+    <s v="SHU_Students (Canada)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Canada"/>
+    <n v="759"/>
+    <n v="878"/>
+    <n v="1.1567852439999999"/>
+    <n v="52"/>
+    <n v="44"/>
+    <n v="34"/>
+    <n v="5.9225512528473807"/>
+    <n v="5.7971014500000004"/>
+    <n v="294.82"/>
+    <n v="5.6696015500000003"/>
+    <n v="8.67"/>
+  </r>
+  <r>
+    <s v="Campaign 4"/>
+    <s v="SHU_Students (Canada)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Canada"/>
+    <n v="218"/>
+    <n v="243"/>
+    <n v="1.1146788990000001"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="15"/>
+    <n v="7.4074074074074066"/>
+    <n v="8.2568807300000007"/>
+    <n v="101.06"/>
+    <n v="5.6146358100000002"/>
+    <n v="6.74"/>
+  </r>
+  <r>
+    <s v="Campaign 5"/>
+    <s v="SHU_Students(Ghana)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Ghana"/>
+    <n v="5952"/>
+    <n v="6943"/>
+    <n v="1.1664986559999999"/>
+    <n v="284"/>
+    <n v="238"/>
+    <n v="98"/>
+    <n v="4.0904508137692641"/>
+    <n v="3.9986559100000001"/>
+    <n v="378.1"/>
+    <n v="1.33135077"/>
+    <n v="3.86"/>
+  </r>
+  <r>
+    <s v="Campaign 5"/>
+    <s v="SHU_Students(Ghana)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Ghana"/>
+    <n v="3717"/>
+    <n v="4620"/>
+    <n v="1.2429378529999999"/>
+    <n v="184"/>
+    <n v="160"/>
+    <n v="46"/>
+    <n v="3.9826839826839828"/>
+    <n v="4.3045466799999996"/>
+    <n v="282.22000000000003"/>
+    <n v="1.5337844199999999"/>
+    <n v="6.14"/>
+  </r>
+  <r>
+    <s v="Campaign 5"/>
+    <s v="SHU_Students(Ghana)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Ghana"/>
+    <n v="5355"/>
+    <n v="8920"/>
+    <n v="1.6657329599999999"/>
+    <n v="180"/>
+    <n v="154"/>
+    <n v="93"/>
+    <n v="2.0179372197309418"/>
+    <n v="2.8758169900000001"/>
+    <n v="177.46"/>
+    <n v="0.98588916000000004"/>
+    <n v="1.91"/>
+  </r>
+  <r>
+    <s v="Campaign 6"/>
+    <s v="SHU_Students (India)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="India"/>
+    <n v="30110"/>
+    <n v="35372"/>
+    <n v="1.174759216"/>
+    <n v="1308"/>
+    <n v="1162"/>
+    <n v="934"/>
+    <n v="3.6978400995137397"/>
+    <n v="3.8591830000000003"/>
+    <n v="894"/>
+    <n v="0.68348251999999998"/>
+    <n v="0.96"/>
+  </r>
+  <r>
+    <s v="Campaign 6"/>
+    <s v="SHU_Students (India)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="India"/>
+    <n v="1721"/>
+    <n v="1874"/>
+    <n v="1.088901801"/>
+    <n v="92"/>
+    <n v="76"/>
+    <n v="53"/>
+    <n v="4.909284951974386"/>
+    <n v="4.4160371899999999"/>
+    <n v="61.21"/>
+    <n v="0.66537891000000005"/>
+    <n v="1.1499999999999999"/>
+  </r>
+  <r>
+    <s v="Campaign 7"/>
+    <s v="SHU_Students(Nepal)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Nepal"/>
+    <n v="18900"/>
+    <n v="36659"/>
+    <n v="1.93962963"/>
+    <n v="849"/>
+    <n v="688"/>
+    <n v="306"/>
+    <n v="2.3159387872009605"/>
+    <n v="3.6402116399999995"/>
+    <n v="634.64"/>
+    <n v="0.74751528"/>
+    <n v="2.0699999999999998"/>
+  </r>
+  <r>
+    <s v="Campaign 7"/>
+    <s v="SHU_Students(Nepal)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Nepal"/>
+    <n v="6145"/>
+    <n v="19474"/>
+    <n v="3.1690805530000001"/>
+    <n v="325"/>
+    <n v="246"/>
+    <n v="129"/>
+    <n v="1.6688918558077435"/>
+    <n v="4.0032546800000004"/>
+    <n v="211.76"/>
+    <n v="0.65156015"/>
+    <n v="1.64"/>
+  </r>
+  <r>
+    <s v="Campaign 7"/>
+    <s v="SHU_Students(Nepal)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Nepal"/>
+    <n v="4623"/>
+    <n v="9082"/>
+    <n v="1.9645252"/>
+    <n v="246"/>
+    <n v="212"/>
+    <n v="83"/>
+    <n v="2.7086544813917639"/>
+    <n v="4.5857668199999999"/>
+    <n v="188.84"/>
+    <n v="0.76765236000000003"/>
+    <n v="2.2799999999999998"/>
+  </r>
+  <r>
+    <s v="Campaign 8"/>
+    <s v="SHU_Students (Nigeria)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="Nigeria"/>
+    <n v="11027"/>
+    <n v="13820"/>
+    <n v="1.253287386"/>
+    <n v="1491"/>
+    <n v="1132"/>
+    <n v="548"/>
+    <n v="10.788712011577424"/>
+    <n v="10.26571144"/>
+    <n v="542.66999999999996"/>
+    <n v="0.36396574999999998"/>
+    <n v="0.99"/>
+  </r>
+  <r>
+    <s v="Campaign 8"/>
+    <s v="SHU_Students (Nigeria)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="Nigeria"/>
+    <n v="8516"/>
+    <n v="12372"/>
+    <n v="1.452794739"/>
+    <n v="970"/>
+    <n v="696"/>
+    <n v="408"/>
+    <n v="7.8402845134173935"/>
+    <n v="8.1728511000000008"/>
+    <n v="282.20999999999998"/>
+    <n v="0.29093766999999998"/>
+    <n v="0.69"/>
+  </r>
+  <r>
+    <s v="Campaign 8"/>
+    <s v="SHU_Students (Nigeria)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="Nigeria"/>
+    <n v="2386"/>
+    <n v="2782"/>
+    <n v="1.1659681479999999"/>
+    <n v="304"/>
+    <n v="230"/>
+    <n v="117"/>
+    <n v="10.927390366642703"/>
+    <n v="9.6395641199999993"/>
+    <n v="117.9"/>
+    <n v="0.38782084999999999"/>
+    <n v="1.01"/>
+  </r>
+  <r>
+    <s v="Campaign 9"/>
+    <s v="SHU_Students(UAE)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="UAE"/>
+    <n v="2892"/>
+    <n v="3347"/>
+    <n v="1.157330567"/>
+    <n v="135"/>
+    <n v="102"/>
+    <n v="41"/>
+    <n v="4.0334628025097103"/>
+    <n v="3.5269709499999995"/>
+    <n v="455.49"/>
+    <n v="3.3739992999999999"/>
+    <n v="11.11"/>
+  </r>
+  <r>
+    <s v="Campaign 9"/>
+    <s v="SHU_Students(UAE)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="UAE"/>
+    <n v="2862"/>
+    <n v="3234"/>
+    <n v="1.1299790359999999"/>
+    <n v="72"/>
+    <n v="60"/>
+    <n v="27"/>
+    <n v="2.2263450834879404"/>
+    <n v="2.0964360599999998"/>
+    <n v="316.14"/>
+    <n v="4.3908387800000002"/>
+    <n v="11.71"/>
+  </r>
+  <r>
+    <s v="Campaign 9"/>
+    <s v="SHU_Students(UAE)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="UAE"/>
+    <n v="1579"/>
+    <n v="2079"/>
+    <n v="1.3166561109999999"/>
+    <n v="35"/>
+    <n v="32"/>
+    <n v="20"/>
+    <n v="1.6835016835016834"/>
+    <n v="2.0265991099999998"/>
+    <n v="104.63"/>
+    <n v="2.98942007"/>
+    <n v="5.23"/>
+  </r>
+  <r>
+    <s v="Campaign 10"/>
+    <s v="SHU_Students(UK)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="UK"/>
+    <n v="2557"/>
+    <n v="2941"/>
+    <n v="1.1501759869999999"/>
+    <n v="69"/>
+    <n v="60"/>
+    <n v="33"/>
+    <n v="2.3461407684461069"/>
+    <n v="2.3464998000000001"/>
+    <n v="487.52"/>
+    <n v="7.0655072499999996"/>
+    <n v="14.77"/>
+  </r>
+  <r>
+    <s v="Campaign 10"/>
+    <s v="SHU_Students(UK)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="UK"/>
+    <n v="741"/>
+    <n v="785"/>
+    <n v="1.059379217"/>
+    <n v="39"/>
+    <n v="34"/>
+    <n v="20"/>
+    <n v="4.9681528662420389"/>
+    <n v="4.5883940599999997"/>
+    <n v="255.57"/>
+    <n v="6.5530769199999996"/>
+    <n v="12.78"/>
+  </r>
+  <r>
+    <s v="Campaign 10"/>
+    <s v="SHU_Students(UK)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="UK"/>
+    <n v="338"/>
+    <n v="365"/>
+    <n v="1.0798816570000001"/>
+    <n v="13"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="3.5616438356164384"/>
+    <n v="3.2544378700000003"/>
+    <n v="113.58"/>
+    <n v="8.7369230800000004"/>
+    <n v="28.4"/>
+  </r>
+  <r>
+    <s v="Campaign 11"/>
+    <s v="SHU_Students (USA)"/>
+    <s v="Students"/>
+    <s v="13-17"/>
+    <s v="USA"/>
+    <n v="2159"/>
+    <n v="2465"/>
+    <n v="1.1417322830000001"/>
+    <n v="126"/>
+    <n v="111"/>
+    <n v="95"/>
+    <n v="5.1115618661257605"/>
+    <n v="5.1412691099999996"/>
+    <n v="691.28"/>
+    <n v="5.4863581899999998"/>
+    <n v="7.28"/>
+  </r>
+  <r>
+    <s v="Campaign 11"/>
+    <s v="SHU_Students (USA)"/>
+    <s v="Students"/>
+    <s v="18-24"/>
+    <s v="USA"/>
+    <n v="305"/>
+    <n v="332"/>
+    <n v="1.08852459"/>
+    <n v="43"/>
+    <n v="37"/>
+    <n v="28"/>
+    <n v="12.951807228915662"/>
+    <n v="12.131147540000001"/>
+    <n v="159.13999999999999"/>
+    <n v="3.7008425200000001"/>
+    <n v="5.68"/>
+  </r>
+  <r>
+    <s v="Campaign 11"/>
+    <s v="SHU_Students (USA)"/>
+    <s v="Students"/>
+    <s v="25-34"/>
+    <s v="USA"/>
+    <n v="91"/>
+    <n v="103"/>
+    <n v="1.1318681319999999"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="8.7378640776699026"/>
+    <n v="8.7912087900000007"/>
+    <n v="47.26"/>
+    <n v="5.2514043800000003"/>
+    <n v="15.75"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
+  <r>
+    <x v="0"/>
+    <n v="2.2427900900000002"/>
+    <n v="6.07"/>
+    <n v="2.0916548554739509"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.7261653800000001"/>
+    <n v="5.43"/>
+    <n v="3.0861442326085573"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.6130377300000001"/>
+    <n v="4.91"/>
+    <n v="3.1513608148973424"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.76011659"/>
+    <n v="4.1100000000000003"/>
+    <n v="2.5925925925925926"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.46044803000000001"/>
+    <n v="1.0900000000000001"/>
+    <n v="6.6213835193176891"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.30908815000000001"/>
+    <n v="0.69"/>
+    <n v="3.7696946119432013"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.47277255000000001"/>
+    <n v="1.32"/>
+    <n v="7.3968124233755619"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7.8007930099999996"/>
+    <n v="16.989999999999998"/>
+    <n v="2.3318042813455659"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.7789672200000002"/>
+    <n v="21.78"/>
+    <n v="6.6757493188010901"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10.18469247"/>
+    <n v="30.55"/>
+    <n v="4.0540540540540544"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5.2284878700000004"/>
+    <n v="8.3800000000000008"/>
+    <n v="3.2104259376986648"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5.6696015500000003"/>
+    <n v="8.67"/>
+    <n v="5.9225512528473807"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5.6146358100000002"/>
+    <n v="6.74"/>
+    <n v="7.4074074074074066"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.33135077"/>
+    <n v="3.86"/>
+    <n v="4.0904508137692641"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.5337844199999999"/>
+    <n v="6.14"/>
+    <n v="3.9826839826839828"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.98588916000000004"/>
+    <n v="1.91"/>
+    <n v="2.0179372197309418"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.68348251999999998"/>
+    <n v="0.96"/>
+    <n v="3.6978400995137397"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.66537891000000005"/>
+    <n v="1.1499999999999999"/>
+    <n v="4.909284951974386"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.74751528"/>
+    <n v="2.0699999999999998"/>
+    <n v="2.3159387872009605"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.65156015"/>
+    <n v="1.64"/>
+    <n v="1.6688918558077435"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.76765236000000003"/>
+    <n v="2.2799999999999998"/>
+    <n v="2.7086544813917639"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.36396574999999998"/>
+    <n v="0.99"/>
+    <n v="10.788712011577424"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.29093766999999998"/>
+    <n v="0.69"/>
+    <n v="7.8402845134173935"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.38782084999999999"/>
+    <n v="1.01"/>
+    <n v="10.927390366642703"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3.3739992999999999"/>
+    <n v="11.11"/>
+    <n v="4.0334628025097103"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4.3908387800000002"/>
+    <n v="11.71"/>
+    <n v="2.2263450834879404"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2.98942007"/>
+    <n v="5.23"/>
+    <n v="1.6835016835016834"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7.0655072499999996"/>
+    <n v="14.77"/>
+    <n v="2.3461407684461069"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="6.5530769199999996"/>
+    <n v="12.78"/>
+    <n v="4.9681528662420389"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8.7369230800000004"/>
+    <n v="28.4"/>
+    <n v="3.5616438356164384"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5.4863581899999998"/>
+    <n v="7.28"/>
+    <n v="5.1115618661257605"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3.7008425200000001"/>
+    <n v="5.68"/>
+    <n v="12.951807228915662"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5.2514043800000003"/>
+    <n v="15.75"/>
+    <n v="8.7378640776699026"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0BD6084-B087-46A2-871E-A6898B8E4070}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Cost Per Click" fld="14" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57527927-70A0-4CAF-88B5-4ED344A559A7}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Cost Per Click" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Cost per Result" fld="2" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Click-Through Rate" fld="3" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,13 +3123,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80CBA42-29D6-4E7E-8FFC-3493071141B9}">
+  <dimension ref="A3:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>104.81930477999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -490,7 +3186,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -517,46 +3213,42 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="O1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>11387</v>
@@ -594,19 +3286,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>8761</v>
@@ -644,19 +3336,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>2867</v>
@@ -694,19 +3386,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>889</v>
@@ -744,19 +3436,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>29675</v>
@@ -794,19 +3486,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>14753</v>
@@ -844,19 +3536,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>2066</v>
@@ -894,19 +3586,19 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="1">
         <v>2271</v>
@@ -944,19 +3636,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="1">
         <v>704</v>
@@ -994,19 +3686,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="1">
         <v>212</v>
@@ -1044,19 +3736,19 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>2330</v>
@@ -1094,19 +3786,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>759</v>
@@ -1144,19 +3836,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>218</v>
@@ -1194,19 +3886,19 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1">
         <v>5952</v>
@@ -1244,19 +3936,19 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>3717</v>
@@ -1294,19 +3986,19 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1">
         <v>5355</v>
@@ -1344,19 +4036,19 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1">
         <v>30110</v>
@@ -1394,19 +4086,19 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1">
         <v>1721</v>
@@ -1444,19 +4136,19 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>18900</v>
@@ -1494,19 +4186,19 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>6145</v>
@@ -1544,19 +4236,19 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>4623</v>
@@ -1594,19 +4286,19 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1">
         <v>11027</v>
@@ -1644,19 +4336,19 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1">
         <v>8516</v>
@@ -1694,19 +4386,19 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1">
         <v>2386</v>
@@ -1744,19 +4436,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
         <v>2892</v>
@@ -1794,19 +4486,19 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1">
         <v>2862</v>
@@ -1844,19 +4536,19 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1">
         <v>1579</v>
@@ -1894,19 +4586,19 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>2557</v>
@@ -1944,19 +4636,19 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1">
         <v>741</v>
@@ -1994,19 +4686,19 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
         <v>338</v>
@@ -2044,19 +4736,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1">
         <v>2159</v>
@@ -2094,19 +4786,19 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1">
         <v>305</v>
@@ -2144,19 +4836,19 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
         <v>91</v>
@@ -2197,14 +4889,591 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6C68B5-3F5B-429D-9548-F45AB727E534}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F50657A-A9B1-4658-A226-FDAAE6BEBBEC}">
+  <dimension ref="A3:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.24230873</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>17.787890554636451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.3488614299999999</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.6071250514881257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2.1667277899999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5.99</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6.6934851244004676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4.7578979500000003</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>33.088500730525041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226682F5-5DB0-4CD6-AA18-8A767DB993FD}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.2427900900000002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.07</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.0916548554739509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.7261653800000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.43</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.0861442326085573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.6130377300000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.91</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.1513608148973424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.76011659</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.5925925925925926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.46044803000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.6213835193176891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.30908815000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.7696946119432013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.47277255000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.3968124233755619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.8007930099999996</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.3318042813455659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.7789672200000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>21.78</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.6757493188010901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.18469247</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30.55</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.0540540540540544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.2284878700000004</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.2104259376986648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5.6696015500000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.9225512528473807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.6146358100000002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.74</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.4074074074074066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.33135077</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.0904508137692641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.5337844199999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.9826839826839828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.98588916000000004</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.0179372197309418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.68348251999999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.6978400995137397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.66537891000000005</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.909284951974386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.74751528</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.3159387872009605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.65156015</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.6688918558077435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.76765236000000003</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.7086544813917639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.36396574999999998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10.788712011577424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.29093766999999998</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7.8402845134173935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.38782084999999999</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10.927390366642703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.3739992999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11.11</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.0334628025097103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4.3908387800000002</v>
+      </c>
+      <c r="C27" s="3">
+        <v>11.71</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.2263450834879404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.98942007</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.6835016835016834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7.0655072499999996</v>
+      </c>
+      <c r="C29" s="3">
+        <v>14.77</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.3461407684461069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.5530769199999996</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12.78</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.9681528662420389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8.7369230800000004</v>
+      </c>
+      <c r="C31" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.5616438356164384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.4863581899999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5.1115618661257605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3.7008425200000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="D33" s="2">
+        <v>12.951807228915662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.2514043800000003</v>
+      </c>
+      <c r="C34" s="3">
+        <v>15.75</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.7378640776699026</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>